--- a/biology/Zoologie/Heterogastridae/Heterogastridae.xlsx
+++ b/biology/Zoologie/Heterogastridae/Heterogastridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heterogastrinae
 Les Heterogastridae sont une famille d'insectes hétéroptères (punaises) de la super-famille des Lygaeoidea, qui avaient longtemps été considérée comme une sous-famille des Lygaeidae, les Heterogastrinae.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces punaises sont de couleur brun moucheté, avec le dessus du corps ponctué. Le clypeus dépasse nettement les jugas. Les fémurs antérieurs sont peu gonflés, à peine plus que les fémurs postérieurs, et sans épines. La membrane comporte une ou deux cellules fermées à sa base. Les buccules (excroissances à la base du rostre) sont courtes (n'atteignant pas vers l'arrière la base de la tête), les jugas (plaques latérales situées en avant des yeux) n'ont pas d'épines ou de protubérance, ce qui les distingue des Meschiidae. Tous les stigmates abdominaux sont ventraux. Des groupes de deux à trois trichobothries sont présentes sur les sternites 3, 4, 5 et 7. Les sutures entre les segments 4-5 et 5-6 de l'abdomen sont recourbées vers l'arrière. Le connexivum (bordure latérale de l'abdomen, dont les plaques sont séparées des segments centraux) est bicolore dorsalement. Seuls des individus macroptères sont connus. Elles mesurent de 3 à 8 mm[2],[3],[4],[5]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces punaises sont de couleur brun moucheté, avec le dessus du corps ponctué. Le clypeus dépasse nettement les jugas. Les fémurs antérieurs sont peu gonflés, à peine plus que les fémurs postérieurs, et sans épines. La membrane comporte une ou deux cellules fermées à sa base. Les buccules (excroissances à la base du rostre) sont courtes (n'atteignant pas vers l'arrière la base de la tête), les jugas (plaques latérales situées en avant des yeux) n'ont pas d'épines ou de protubérance, ce qui les distingue des Meschiidae. Tous les stigmates abdominaux sont ventraux. Des groupes de deux à trois trichobothries sont présentes sur les sternites 3, 4, 5 et 7. Les sutures entre les segments 4-5 et 5-6 de l'abdomen sont recourbées vers l'arrière. Le connexivum (bordure latérale de l'abdomen, dont les plaques sont séparées des segments centraux) est bicolore dorsalement. Seuls des individus macroptères sont connus. Elles mesurent de 3 à 8 mm. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces punaises se rencontrent surtout dans l'Ancien Monde, avec leur plus grande diversité en Afrique et dans le Sud du Paléarctique[3]. Deux espèces seulement sont natives du continent américain, où Heterogaster urticae a ensuite également été introduite[3], ainsi qu'en Nouvelle-Zélande à la fin des années 1970[6]. Quelques genres sont présents dans les écozones australiennes et océanienne[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces punaises se rencontrent surtout dans l'Ancien Monde, avec leur plus grande diversité en Afrique et dans le Sud du Paléarctique. Deux espèces seulement sont natives du continent américain, où Heterogaster urticae a ensuite également été introduite, ainsi qu'en Nouvelle-Zélande à la fin des années 1970. Quelques genres sont présents dans les écozones australiennes et océanienne.
 </t>
         </is>
       </c>
@@ -574,12 +590,14 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Leur biologie est mal connue[4]. Ces punaises se nourrissent de graines. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Leur biologie est mal connue. Ces punaises se nourrissent de graines. 
 On peut y distinguer deux groupes :
 le premier, autour du genre Dinomachus, se rencontre sur l'écorce et les troncs de Ficus sp. (Moraceae), et se nourrit de graines de leurs fruits en y insérant leur longs stylets. Ce groupe est souvent grégaire, et leur corps est long et allongé.
-l'autre groupe, de forme plus courte et trapue, se nourrit sur les Lamiaceae (comme le genre Platyplax sur Salvia, ou le genre Heterogaster sur Origanum et Nepeta[5]), sauf Heterogaster, qui se nourrit également sur les Urticaceae[3].</t>
+l'autre groupe, de forme plus courte et trapue, se nourrit sur les Lamiaceae (comme le genre Platyplax sur Salvia, ou le genre Heterogaster sur Origanum et Nepeta), sauf Heterogaster, qui se nourrit également sur les Urticaceae.</t>
         </is>
       </c>
     </row>
@@ -607,13 +625,85 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon a été reconnu d'abord par l'entomologiste suédois Carl Stål, et a été longtemps considéré au sein des Lygaeidae, pris dans une conception très large, ou comme une tribu au sein des Pachygrontinae, qui n'étaient pas encore élevés au rang de famille. Scudder révise le groupe en 1957 et en 1962, et en retire Idiostolus et Trisecus, formant les Idiostolidae, ainsi que Meschius, qu'il laisse alors dans les Lygaeidae[7],[8]. Thomas J. Henry, dans son analyse des Lygaeoidea de 1997[9], les élève au rang de famille, et montre leur proximité avec les Pachygronthidae, qui avait déjà été suggérée précédemment[3], et dont il les considère comme le groupe frère[4]. Cette famille ne comprend pas de division interne. Elle comprend une vingtaine de genres et un peu plus d'une centaine d'espèces, selon le catalogue en ligne du site Lygaeoidea Species Files[10]. Un certain nombre d'auteurs appellent à une révision du groupe[11].
-Fossiles
-Plusieurs espèces fossiles ont été trouvées, rattachées au genre encore actuel Heterogaster, en France, en Allemagne et en Croatie. Les plus anciens, auxquels appartiennent H. breviscutatus et H. sundgoviensis remontent à l'Oligocène (entre −33 et −28 millions d'années), et les plus récents à −12 à −11 millions d'années[12].
-Liste des genres
-Selon BioLib                    (6 novembre 2022)[1], complété à partir de Lygaeoidea Species Files[10] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon a été reconnu d'abord par l'entomologiste suédois Carl Stål, et a été longtemps considéré au sein des Lygaeidae, pris dans une conception très large, ou comme une tribu au sein des Pachygrontinae, qui n'étaient pas encore élevés au rang de famille. Scudder révise le groupe en 1957 et en 1962, et en retire Idiostolus et Trisecus, formant les Idiostolidae, ainsi que Meschius, qu'il laisse alors dans les Lygaeidae,. Thomas J. Henry, dans son analyse des Lygaeoidea de 1997, les élève au rang de famille, et montre leur proximité avec les Pachygronthidae, qui avait déjà été suggérée précédemment, et dont il les considère comme le groupe frère. Cette famille ne comprend pas de division interne. Elle comprend une vingtaine de genres et un peu plus d'une centaine d'espèces, selon le catalogue en ligne du site Lygaeoidea Species Files. Un certain nombre d'auteurs appellent à une révision du groupe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Heterogastridae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heterogastridae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs espèces fossiles ont été trouvées, rattachées au genre encore actuel Heterogaster, en France, en Allemagne et en Croatie. Les plus anciens, auxquels appartiennent H. breviscutatus et H. sundgoviensis remontent à l'Oligocène (entre −33 et −28 millions d'années), et les plus récents à −12 à −11 millions d'années.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Heterogastridae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heterogastridae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (6 novembre 2022), complété à partir de Lygaeoidea Species Files :
 genre Artemidorus Distant, 1903
 genre Boccharis Distant, 1904
 genre Depressignus Scudder, 1962
